--- a/data/testCase.xlsx
+++ b/data/testCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\api_auto_test_frame\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D713C16D-0C88-487D-B11D-405783DFF431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC14902-1E1E-4932-A1BA-BE474EF72473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="115">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,10 +205,6 @@
   </si>
   <si>
     <t>课程名称包含特殊字符#，其他正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误，课程名称长度不能包含特殊字符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -361,7 +357,25 @@
   </si>
   <si>
     <t>{
-  "name":"初中化学",
+"id":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 2    
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 0    
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "name":"初中化学{{onoce}}",
   "desc":"初中化学课程",
   "display_idx":""
 }</t>
@@ -369,20 +383,161 @@
   </si>
   <si>
     <t>{
-"id":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "code": 2    
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "code": 0    
-}</t>
+  "name":"初中化学初中化学初中化学初中化学初中化学1",
+  "desc":"初中化学课程",
+  "display_idx":"4"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "name":"初",
+  "desc":"初中化学课程",
+  "display_idx":"4"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 0 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "name":"初中化学初中化学初中化学初中化学初中化学",
+  "desc":"初中化学课程",
+  "display_idx":"4"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "name":"初中化学{{onoce}}",
+  "desc":"初中化学课程",
+  "display_idx":"999"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "name":"初中化学{{onoce}}",
+  "desc":"初中化学课程",
+  "display_idx":"123"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "name":"初中化学{{onoce}}",
+  "desc":"初中化学课程",
+  "display_idx":"1000"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "name":"初中化学{{onoce}}",
+  "desc":"初中化学课程",
+  "display_idx":"0"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "name":"初中化学{{onoce}}",
+  "desc":"初中化学课程",
+  "display_idx":"-1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误，课程名称不能包含特殊字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "name":"初中化学#{{onoce}}",
+  "desc":"初中化学课程",
+  "display_idx":"123"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "name":"初中化学{{onoce}}",
+  "desc":"初中化学课程",
+  "display_idx":"0.1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "name":"初中化学{{onoce}}",
+  "desc":"初中化学课程",
+  "display_idx":"-0.22"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "name":"a",
+  "desc":"初中化学课程",
+  "display_idx":"1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "name":"1",
+  "desc":"初中化学课程",
+  "display_idx":"2"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id":"a"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id":"#"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>{"pagenum":-1,
+"pagesize":20}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pagenum":2.1,
+"pagesize":20}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pagenum":2a,
+"pagesize":20}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pagenum":@,
+"pagesize":20}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pagenum":2,
+"pagesize":20}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pagenum":1,
+"pagesize":20}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,7 +545,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,6 +572,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -473,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -483,6 +646,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -767,14 +933,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" customWidth="1"/>
     <col min="7" max="7" width="16.5546875" customWidth="1"/>
     <col min="8" max="8" width="11.21875" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" customWidth="1"/>
@@ -826,10 +992,10 @@
         <v>31</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="69" x14ac:dyDescent="0.25">
@@ -849,10 +1015,10 @@
         <v>31</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="69" x14ac:dyDescent="0.25">
@@ -872,13 +1038,13 @@
         <v>31</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -894,8 +1060,14 @@
       <c r="E5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -911,8 +1083,14 @@
       <c r="E6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -927,6 +1105,12 @@
       </c>
       <c r="E7" t="s">
         <v>31</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="69" x14ac:dyDescent="0.25">
@@ -946,13 +1130,13 @@
         <v>31</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -968,8 +1152,14 @@
       <c r="E9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -985,8 +1175,14 @@
       <c r="E10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1002,8 +1198,14 @@
       <c r="E11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1019,8 +1221,14 @@
       <c r="E12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -1036,8 +1244,14 @@
       <c r="E13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -1048,13 +1262,19 @@
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -1062,16 +1282,22 @@
         <v>28</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
         <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
       </c>
       <c r="E15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -1079,16 +1305,22 @@
         <v>28</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -1096,7 +1328,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
         <v>30</v>
@@ -1104,8 +1336,14 @@
       <c r="E17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -1113,13 +1351,19 @@
         <v>28</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
         <v>30</v>
       </c>
       <c r="E18" t="s">
         <v>31</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -1127,175 +1371,226 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" t="s">
         <v>57</v>
       </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>61</v>
       </c>
-      <c r="E20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="E21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
       </c>
       <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="F24" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="E27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
